--- a/src/diffusion.xlsx
+++ b/src/diffusion.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="type1" sheetId="1" r:id="rId1"/>
     <sheet name="type2" sheetId="2" r:id="rId2"/>
+    <sheet name="type3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="102">
   <si>
     <t>m0</t>
   </si>
@@ -320,6 +321,12 @@
   </si>
   <si>
     <t>Mauerhofer2003</t>
+  </si>
+  <si>
+    <t>a0</t>
+  </si>
+  <si>
+    <t>a1</t>
   </si>
 </sst>
 </file>
@@ -650,7 +657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="E50" sqref="A50:E50"/>
     </sheetView>
   </sheetViews>
@@ -1508,8 +1515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1587,9 +1594,6 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>1</v>
-      </c>
       <c r="B6" t="s">
         <v>54</v>
       </c>
@@ -1601,9 +1605,6 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>1</v>
-      </c>
       <c r="B7" t="s">
         <v>55</v>
       </c>
@@ -1615,6 +1616,9 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>1</v>
+      </c>
       <c r="B8" t="s">
         <v>56</v>
       </c>
@@ -1626,9 +1630,6 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>1</v>
-      </c>
       <c r="B9" t="s">
         <v>56</v>
       </c>
@@ -2184,6 +2185,79 @@
       </c>
       <c r="D48" t="s">
         <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="6.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.84375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2">
+        <v>2.6040000000000001</v>
+      </c>
+      <c r="D2">
+        <v>6.3829999999999998E-2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3">
+        <v>1.954</v>
+      </c>
+      <c r="D3">
+        <v>5.0889999999999998E-2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/src/diffusion.xlsx
+++ b/src/diffusion.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12643" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12643" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="type1" sheetId="1" r:id="rId1"/>
@@ -657,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E50" sqref="A50:E50"/>
+    <sheetView topLeftCell="A25" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1112,9 +1112,6 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27">
-        <v>1</v>
-      </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
@@ -1129,9 +1126,6 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28">
-        <v>1</v>
-      </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
@@ -1513,10 +1507,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2187,6 +2181,12 @@
         <v>99</v>
       </c>
     </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C49" s="4"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C50" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2196,8 +2196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
